--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665332.496890289</v>
+        <v>1662997.385688309</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +674,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>110.2445386555253</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>33.81937174644096</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>91.64702538008599</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>239.3135884893132</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>354.2371652510662</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>15.54413360818939</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>48.88217363299585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>369.799311643252</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>122.2882635917094</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>28.20584125154443</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>7.408064079033588</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>134.179529201143</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>141.3831318263024</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.3106907504122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>14.73874327217573</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>149.2351784782012</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>55.49215756129646</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427808</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>73.98898794535445</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>195.9478727852284</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>78.14939830226164</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272841</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>133.4811715458585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>133.8107367464754</v>
       </c>
       <c r="T40" t="n">
-        <v>39.83255574579498</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>54.3264904208971</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>81.27859867330054</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.383781964454</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2326.28200107256</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2326.28200107256</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>2326.28200107256</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526515</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X2" t="n">
-        <v>1588.383781964454</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1588.383781964454</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1441.289960680901</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1218.311479875637</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>929.1931423794746</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V4" t="n">
-        <v>674.5086541735877</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W4" t="n">
-        <v>385.0914841366271</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386098</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>494.0456011520457</v>
+        <v>1198.574246756697</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2302827166252</v>
+        <v>829.6117298162856</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>471.3460312095351</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>85.55777861129081</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>78.61227786208734</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>66.94793162678027</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.6454412161675</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>168.000818914519</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415.499131720257</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>415.499131720257</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>415.499131720257</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
         <v>366.1231987576349</v>
@@ -4714,16 +4714,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>825.137147448514</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>597.1475965504967</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>597.1475965504967</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471216</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530804</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>790.659319924054</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>790.659319924054</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>647.1049639252025</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>232.0325137701989</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,25 +4802,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,10 +4884,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.8928126690276</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C10" t="n">
-        <v>241.8928126690276</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>241.8928126690276</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992673</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273908</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273908</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.218472639695</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072725</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>815.9830526793656</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>665.8664132670299</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>517.9533196846368</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0633721867264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750803</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072725</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.95525898292</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550131</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.39630295669</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.60372381316</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
         <v>402.7245934908939</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5981,43 +5981,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270406</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>335.7491137930459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>168.5530145079259</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991042</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2368.02429741636</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2148.422832439301</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1859.347605783499</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1604.663117577612</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1315.245947540652</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1087.256396642634</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>866.4638174991042</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,22 +6947,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>700.7543264856228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258111</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602308</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1620.602091394371</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.18492135741</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.195370459393</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>882.4027913158625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2311.800723230285</v>
       </c>
       <c r="T40" t="n">
-        <v>2156.827640693835</v>
+        <v>2092.199258253227</v>
       </c>
       <c r="U40" t="n">
-        <v>1867.752414038033</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V40" t="n">
-        <v>1613.067925832146</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W40" t="n">
-        <v>1323.650755795185</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X40" t="n">
-        <v>1095.661204897168</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.8686257536381</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900021</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4949469776664</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>295.5818533952732</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>148.6919058973629</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5477693179085</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4311299055728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5180363231797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6280888252693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417438</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>54.95314511566427</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>279.1149342575574</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>31.34460909112582</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>144.8013425629417</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.30478226780019</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012299</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>111.7546635373314</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194581</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>66.30572490086944</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.63678056686643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>102.8768876993829</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>118.6564717779695</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.21554925516918</v>
       </c>
       <c r="T40" t="n">
-        <v>177.5728945814933</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>111.1976478713717</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041668</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117837</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
@@ -26329,16 +26329,16 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26347,13 +26347,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744289</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744299</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-809534.5425809636</v>
       </c>
       <c r="C6" t="n">
-        <v>305217.240994956</v>
+        <v>305217.2409949564</v>
       </c>
       <c r="D6" t="n">
-        <v>145201.7782469576</v>
+        <v>145201.7782469578</v>
       </c>
       <c r="E6" t="n">
-        <v>89383.04177549704</v>
+        <v>89348.30385006138</v>
       </c>
       <c r="F6" t="n">
-        <v>414795.5035828524</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="G6" t="n">
-        <v>414795.5035828524</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="H6" t="n">
-        <v>414795.503582853</v>
+        <v>414760.765657417</v>
       </c>
       <c r="I6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="J6" t="n">
-        <v>247190.3257728701</v>
+        <v>247155.5878474342</v>
       </c>
       <c r="K6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="L6" t="n">
-        <v>366501.5335746617</v>
+        <v>366466.7956492261</v>
       </c>
       <c r="M6" t="n">
-        <v>329740.4756473407</v>
+        <v>329705.7377219051</v>
       </c>
       <c r="N6" t="n">
-        <v>414795.5035828524</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="O6" t="n">
-        <v>414795.5035828524</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="P6" t="n">
-        <v>414795.5035828528</v>
+        <v>414760.7656574168</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>96.41364632470844</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>335.911728932028</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>103.0154349816515</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>46.91356563188745</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>11.03572651994131</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>285.474418954216</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>97.55178901357331</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193755</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>37.07673409845944</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>172.3195007956111</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>118.2281213950247</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614906</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948324</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>253.6713445157994</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>622.4211036182644</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>150.2061940096322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652761</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065817</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394724</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281407</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060417</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>122.3296324324661</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>483.8667238383903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>18.86448192629892</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
